--- a/110 - CreditsPage 鸣谢页.xlsx
+++ b/110 - CreditsPage 鸣谢页.xlsx
@@ -10,6 +10,7 @@
     <sheet name="介绍" sheetId="1" r:id="rId1"/>
     <sheet name="插件指令" sheetId="2" r:id="rId2"/>
     <sheet name="插件参数" sheetId="3" r:id="rId3"/>
+    <sheet name="自用翻译+填写" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
   <si>
     <t>介绍</t>
   </si>
@@ -66,13 +67,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">打开 Credits Page。  </t>
     </r>
     <r>
@@ -94,13 +88,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">是否在主菜单中启用 Credits Page？
 </t>
     </r>
@@ -120,13 +107,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">是否在主菜单中显示 Credits Page？
 </t>
     </r>
@@ -161,13 +141,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>类别图标。</t>
     </r>
     <r>
@@ -186,13 +159,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>鸣谢文本：此类别显示的文本。</t>
     </r>
     <r>
@@ -336,6 +302,201 @@
   <si>
     <t>后面的略</t>
   </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>制作</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>声音</t>
+  </si>
+  <si>
+    <t>程序</t>
+  </si>
+  <si>
+    <t>特别</t>
+  </si>
+  <si>
+    <t>\c[6]Producer\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]制作人[0]</t>
+  </si>
+  <si>
+    <t>\c[6]主角\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]艺术总监\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]音乐作曲家\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]主程序\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]特别鸣谢\c[0]</t>
+  </si>
+  <si>
+    <t>\{INSERT NAME\}</t>
+  </si>
+  <si>
+    <t>\{刘鹏\}</t>
+  </si>
+  <si>
+    <t>\{\c[5]梁波\c[0]\} \px[400]\{梁波\}</t>
+  </si>
+  <si>
+    <t>\{Yoji Ojima\} - RPG Maker MZ</t>
+  </si>
+  <si>
+    <t>\{\c[5]金花\c[0]\} \px[400]\{魏慎初\}</t>
+  </si>
+  <si>
+    <t>\{\c[5]野人\c[0]\} \px[400]\{程鹏远\}</t>
+  </si>
+  <si>
+    <t>\{\c[5]醒醒\c[0]\} \px[400]\{醒醒\}</t>
+  </si>
+  <si>
+    <t>\c[6]Director\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]导演\c[0]</t>
+  </si>
+  <si>
+    <t>\{\c[5]杰西卡\c[0]\} \px[400]\{杰西卡\}</t>
+  </si>
+  <si>
+    <t>\c[6]角色设计\c[0]</t>
+  </si>
+  <si>
+    <t>\{\c[5]来野\c[0]\} \px[400]\{来野\}</t>
+  </si>
+  <si>
+    <t>\c[6]游戏玩法设计\c[0]</t>
+  </si>
+  <si>
+    <t>\{\c[5]大锤\c[0]\} \px[400]\{周少薇\}</t>
+  </si>
+  <si>
+    <t>\c[6]声音艺术家\c[0]</t>
+  </si>
+  <si>
+    <t>\{\c[5]汤圆\c[0]\} \px[400]\{黄鑫琪\}</t>
+  </si>
+  <si>
+    <t>\{\c[5]细菌佛\c[0]\} \px[400]\{刘韬\}</t>
+  </si>
+  <si>
+    <t>\c[6]Scenario Writer\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]剧本作者\c[0]</t>
+  </si>
+  <si>
+    <t>\{\c[5]小朱\c[0]\} \px[400]\{小朱\}</t>
+  </si>
+  <si>
+    <t>\c[6]地图设计\c[0]</t>
+  </si>
+  <si>
+    <t>\{\c[5]未央\c[0]\} \px[400]\{未央\}</t>
+  </si>
+  <si>
+    <t>\c[6]战斗设计\c[0]</t>
+  </si>
+  <si>
+    <t>\{\c[5]允儿\c[0]\} \px[400]\{林允儿（网名）\}</t>
+  </si>
+  <si>
+    <t>\c[6]音频设计\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]Marketing Director\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]市场总监\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]怪物设计\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]配角\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]用户体验总监\c[0]</t>
+  </si>
+  <si>
+    <t>\{\c[5]CHARACTER NAME\c[0]\} \px[400]\{INSERT NAME\}</t>
+  </si>
+  <si>
+    <t>\c[6]Publisher\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]发行商\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]像素艺术家\c[0]</t>
+  </si>
+  <si>
+    <t>\{STEAM\}</t>
+  </si>
+  <si>
+    <t>\c[24]VisuStella MZ\c[0]</t>
+  </si>
+  <si>
+    <t>\{Yanfly\}</t>
+  </si>
+  <si>
+    <t>\{Arisu\}</t>
+  </si>
+  <si>
+    <t>\{Olivia\}</t>
+  </si>
+  <si>
+    <t>\c[6]Software Provided By\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]软件提供者\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]背景插图\c[0]</t>
+  </si>
+  <si>
+    <t>\{Irina\}</t>
+  </si>
+  <si>
+    <t>\{Yoji Ojima\}</t>
+  </si>
+  <si>
+    <t>\{Enterbrain\}</t>
+  </si>
+  <si>
+    <t>\{Kadokawa\}</t>
+  </si>
+  <si>
+    <t>\{Gotcha Gotcha Games\}</t>
+  </si>
+  <si>
+    <t>\c[6]其他插件\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]UI设计\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]CG设计\c[0]</t>
+  </si>
+  <si>
+    <t>\c[6]视觉特效设计\c[0]</t>
+  </si>
 </sst>
 </file>
 
@@ -561,6 +722,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -706,12 +873,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,7 +1051,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,16 +1075,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -932,66 +1093,66 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1014,29 +1175,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1494,17 +1667,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="27" spans="2:2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1561,20 +1734,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1582,7 +1755,7 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1590,7 +1763,7 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1607,30 +1780,30 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="65.875" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1644,7 +1817,7 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1652,23 +1825,23 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="5" customFormat="1" spans="1:3">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -1677,10 +1850,10 @@
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1691,7 +1864,7 @@
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1702,7 +1875,7 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1713,23 +1886,23 @@
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="4" t="s">
+    <row r="15" s="5" customFormat="1" spans="1:3">
+      <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
@@ -1738,7 +1911,7 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1759,18 +1932,18 @@
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
-      <c r="A21" s="4" t="s">
+    <row r="21" s="5" customFormat="1" spans="1:3">
+      <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
@@ -1779,10 +1952,10 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1793,30 +1966,30 @@
       <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="4" t="s">
+    <row r="26" s="5" customFormat="1" spans="1:3">
+      <c r="A26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" ht="67.5" spans="1:2">
       <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1829,7 +2002,7 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1839,4 +2012,519 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:M45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.625" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.375" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="2:13">
+      <c r="B2" s="2">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="4">
+        <v>190</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="4">
+        <v>80</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="4">
+        <v>83</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1"/>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13">
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13">
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13">
+      <c r="D8" s="1"/>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11">
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9">
+      <c r="D13" s="1"/>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11">
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:9">
+      <c r="D18" s="1"/>
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21" s="1"/>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="1"/>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="1"/>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="D26" s="1"/>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="D27" s="1"/>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="D28" s="1"/>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="G29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="K33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11">
+      <c r="D34" s="1"/>
+      <c r="G34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11">
+      <c r="D35" s="1"/>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11">
+      <c r="D36" s="1"/>
+      <c r="K36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11">
+      <c r="D37" s="1"/>
+      <c r="K37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="1"/>
+      <c r="G39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>